--- a/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
+++ b/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO</t>
+  </si>
+  <si>
+    <t>YAIR</t>
   </si>
 </sst>
 </file>
@@ -938,7 +956,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,6 +989,52 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
+++ b/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -88,16 +88,25 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>MARCELINO</t>
   </si>
   <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
     <t>LUIS EDUARDO</t>
   </si>
   <si>
     <t>YAIR</t>
+  </si>
+  <si>
+    <t>ZURY BETZABE</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -510,7 +519,7 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
         <v>8.800000000000001</v>
@@ -550,10 +559,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -562,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>77.78</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
         <v>9.9</v>
@@ -670,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -716,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -827,10 +836,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -839,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
         <v>8.800000000000001</v>
@@ -879,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -891,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>77.78</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
         <v>9.9</v>
@@ -956,7 +965,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1020,10 +1029,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1032,6 +1041,29 @@
         <v>11</v>
       </c>
       <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
+++ b/docentes/Bautista Sarao Eutiquio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>Mat</t>
   </si>
@@ -85,25 +85,43 @@
     <t>BAEZ</t>
   </si>
   <si>
+    <t>COBOS</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>MARCELINO</t>
   </si>
   <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>GALEOTE</t>
   </si>
   <si>
     <t>LUIS EDUARDO</t>
   </si>
   <si>
+    <t>YOLET</t>
+  </si>
+  <si>
     <t>YAIR</t>
+  </si>
+  <si>
+    <t>JOSMAR JAHIR</t>
   </si>
   <si>
     <t>ZURY BETZABE</t>
@@ -965,7 +983,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1006,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1023,16 +1041,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920017</v>
+        <v>21330051920007</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1046,24 +1064,70 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920045</v>
+        <v>21330051920017</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920045</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>6</v>
       </c>
     </row>
